--- a/Data Exploration/Clustering/data/dataset_unique_location.xlsx
+++ b/Data Exploration/Clustering/data/dataset_unique_location.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unique Locations</t>
+          <t>location</t>
         </is>
       </c>
     </row>
